--- a/biology/Botanique/Emil_Johann_Lambert_Heinricher/Emil_Johann_Lambert_Heinricher.xlsx
+++ b/biology/Botanique/Emil_Johann_Lambert_Heinricher/Emil_Johann_Lambert_Heinricher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emil Johann Lambert Heinricher est un botaniste autrichien, né le 14 novembre 1856 à Laibach et mort le 13 juillet 1934 à Innsbruck.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Graz où il obtient un titre de docteur en 1879. Il devient l’assistant de son ancien professeur, Hubert Leitgeb (1835-1888), fonction qu’il occupe jusqu’à la mort de ce dernier. En 1882, il devient privatdozent de botanique.
 En 1882-1883, il travaille avec Simon Schwendener (1829-1919) de Berlin et avec Julius von Sachs (1832-1897) à Würzburg. En 1883, il est habilité et part enseigné à l’école supérieur technique de Graz où il fonde en 1888-1889, un institut botanique. En 1889, il succède à Johann Joseph Peyritsch (1835-1889) comme professeur de botanique à l'université d’Innsbruck.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Was alles aus der Nachkommenschaft einer Pflanze hervorgehen kann(Studien zur Art- u. Formbildg an Kulturen von Primula kewensis, 1925-1933). Berlin: Akad. d. Wissenschaften, 1934.
 Geschichte des Botanischen Gartens der Universität Innsbruck.Jena: Fischer, 1934.
@@ -591,7 +607,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1935, Chronica Botanica : 85.</t>
         </is>
